--- a/Templates/TemplateConnectedness.xlsx
+++ b/Templates/TemplateConnectedness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master-c\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F266D2-C076-40A2-AA8A-D67E6F7882AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555C676-94A2-48A9-B4FF-568AB010B581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
     <sheet name="Average Adjacency Matrix" sheetId="5" r:id="rId2"/>
     <sheet name="Average Centrality Measures" sheetId="2" r:id="rId3"/>
-    <sheet name="PCA Overall Explained" sheetId="6" r:id="rId4"/>
-    <sheet name="PCA Overall Coefficients" sheetId="3" r:id="rId5"/>
-    <sheet name="PCA Overall Scores" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -413,42 +410,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D526922-AE2E-485A-8075-2B57948085FB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E177BA4B-F0A9-4731-B532-05714A00699F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029B0FC9-0440-43C4-8C47-F5DB1128CD75}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Templates/TemplateConnectedness.xlsx
+++ b/Templates/TemplateConnectedness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master-c\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555C676-94A2-48A9-B4FF-568AB010B581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C20D4-6F27-49E8-B8ED-EF5747B58CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
+    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/Templates/TemplateConnectedness.xlsx
+++ b/Templates/TemplateConnectedness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C20D4-6F27-49E8-B8ED-EF5747B58CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B36D228-8BBC-4F8E-8F0E-6F8E3BD93E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
+    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/Templates/TemplateConnectedness.xlsx
+++ b/Templates/TemplateConnectedness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B36D228-8BBC-4F8E-8F0E-6F8E3BD93E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6B9BC0-42D8-4232-9128-59EDE3043347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
